--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/132.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/132.xlsx
@@ -479,13 +479,13 @@
         <v>-3.504073925977823</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.155269558163589</v>
+        <v>-6.244533045539722</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.701418343576574</v>
+        <v>-3.626797431766851</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.898965544855658</v>
+        <v>-10.02762700313104</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.304643052789168</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.839583849325674</v>
+        <v>-6.9713621404165</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.738125007133371</v>
+        <v>-3.703437503412609</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.806250418631482</v>
+        <v>-9.902654209598962</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.084127747170039</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.28393590544584</v>
+        <v>-7.35068551619983</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.816471342175683</v>
+        <v>-3.763454951710858</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.355464429474456</v>
+        <v>-9.414227756573558</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.849545409948701</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.831978908206405</v>
+        <v>-7.943819829293951</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.54840220665587</v>
+        <v>-3.472040808401525</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.966235925778756</v>
+        <v>-9.042629011639953</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.58256941448803</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.566913976468527</v>
+        <v>-8.667803522174184</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.531359128717804</v>
+        <v>-3.420236891639694</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.603442282212466</v>
+        <v>-8.70728714163139</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.275990938424922</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.264961487919777</v>
+        <v>-9.306899388824174</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.437436417797501</v>
+        <v>-3.30370252395991</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.135226983574888</v>
+        <v>-8.193261848650819</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.920498021460742</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.905504500602373</v>
+        <v>-9.964148137971018</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.315739258866254</v>
+        <v>-3.166639216445949</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.561956705381042</v>
+        <v>-7.58239021864353</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.516067556806197</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.55595753020421</v>
+        <v>-10.6254400957968</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.192883405307548</v>
+        <v>-3.048315472252873</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.042607283922401</v>
+        <v>-7.043465213689761</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.069775957895313</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.81241038540823</v>
+        <v>-10.84886282060795</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.010474559102952</v>
+        <v>-2.846756386150571</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.787904693176733</v>
+        <v>-6.70637796822971</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.5981654337453253</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.56440319862902</v>
+        <v>-11.60894694019348</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.063124274052759</v>
+        <v>-2.895582897730451</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.16244426667857</v>
+        <v>-6.051891507962672</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1228015379446682</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.16033891265788</v>
+        <v>-12.19189745198382</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.701587105251265</v>
+        <v>-2.503988114711164</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.610387389280268</v>
+        <v>-5.497722579597863</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3372264403177121</v>
       </c>
       <c r="E13" t="n">
-        <v>-13.09855888644633</v>
+        <v>-13.14496533962708</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.502301407342078</v>
+        <v>-2.24550632165737</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.856453640333314</v>
+        <v>-4.753224613904055</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7685658488227799</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.57225965078858</v>
+        <v>-13.61896922239509</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.375847244729323</v>
+        <v>-2.152341406801439</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.356968253774948</v>
+        <v>-4.229763537670338</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.167510450798092</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.40823582396924</v>
+        <v>-14.42748384400428</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.182790141568586</v>
+        <v>-1.981177276390747</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.659575869243865</v>
+        <v>-3.522387801117015</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.538478112382916</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.06789485350147</v>
+        <v>-15.15900149646643</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.836404005047661</v>
+        <v>-1.608600730083759</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.459879494757857</v>
+        <v>-3.333369017628349</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.887303699324504</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.08552207682235</v>
+        <v>-16.12379811158343</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.460326929823963</v>
+        <v>-1.237011763163889</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.091145707848265</v>
+        <v>-2.965143687432916</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.217173207146385</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.78706522818344</v>
+        <v>-16.78178998977404</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.282577307163536</v>
+        <v>-1.075390974157414</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.906434139409351</v>
+        <v>-2.765373977843904</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.523858522976442</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.60250268351619</v>
+        <v>-17.57377487916619</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7960380107887611</v>
+        <v>-0.5982336819602493</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.544364068859364</v>
+        <v>-2.321237038025883</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.795745829175302</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.39160794786373</v>
+        <v>-18.44261006749938</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.501504681098337</v>
+        <v>-0.3258133303288815</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.710125846682115</v>
+        <v>-2.44393155435798</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.016958887138139</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.77811816374142</v>
+        <v>-18.73180460169114</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.09898785673836244</v>
+        <v>0.06541966618225344</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.935777958624575</v>
+        <v>-2.576100965998159</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.170860876068472</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.34625987373187</v>
+        <v>-19.26358187860547</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3712563797489849</v>
+        <v>0.510876637854342</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.999154154640393</v>
+        <v>-2.592855592531077</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.246286939318188</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.81728146231106</v>
+        <v>-19.76335571656899</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5247663063632474</v>
+        <v>0.6055913678870853</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.978282984325533</v>
+        <v>-2.531674560598503</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.23820530488793</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.04905949985777</v>
+        <v>-20.00544955860488</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5881816144340012</v>
+        <v>0.642684262986369</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.459683934483181</v>
+        <v>-2.972090966190802</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.152768271886871</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.6148691535727</v>
+        <v>-20.5690151581679</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8644642814902318</v>
+        <v>0.8670603441365636</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.7344314533832</v>
+        <v>-3.176544344358319</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.000694606474305</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.59407620736771</v>
+        <v>-20.52649057643948</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8982082068856788</v>
+        <v>0.8927178521741332</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.110674754840373</v>
+        <v>-3.441093394933953</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.800762336535478</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.83724074190746</v>
+        <v>-20.7565525725759</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7936127939749004</v>
+        <v>0.7540411723940907</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.423796088638808</v>
+        <v>-3.744329156847486</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.570127430513035</v>
       </c>
       <c r="E28" t="n">
-        <v>-20.96912170214249</v>
+        <v>-20.92429928718661</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8509217324688774</v>
+        <v>0.8345093364166439</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.78108959947982</v>
+        <v>-4.087224542465433</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.327301543045942</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.82918365859078</v>
+        <v>-20.76430164845996</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6843337124856175</v>
+        <v>0.6235829131573323</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.044802629881212</v>
+        <v>-4.312153081391589</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.085023377143814</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.48619538184236</v>
+        <v>-20.44121651866675</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7082605120922992</v>
+        <v>0.6586713154411808</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.610299387156664</v>
+        <v>-4.810880671885583</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.852606747027492</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.42327386346517</v>
+        <v>-20.34564132342543</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6878929094847316</v>
+        <v>0.6179018871779771</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.740962984681832</v>
+        <v>-4.905038055135497</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.634373999155268</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.26885458157366</v>
+        <v>-20.17006241981391</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4653159828615616</v>
+        <v>0.3843931412003854</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.174241440248435</v>
+        <v>-5.281657810121424</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.428791574314651</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.87327036895097</v>
+        <v>-19.78191927564266</v>
       </c>
       <c r="F33" t="n">
-        <v>0.341937005568096</v>
+        <v>0.2505223551705203</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.27489631362448</v>
+        <v>-5.411314272232008</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.231560713614836</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.55336309362126</v>
+        <v>-19.45334868014478</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2719410942544747</v>
+        <v>0.1603592905308748</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.538712013170078</v>
+        <v>-5.62000641935314</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.032776030651651</v>
       </c>
       <c r="E35" t="n">
-        <v>-19.0212484752331</v>
+        <v>-18.95003031220275</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09095983805501712</v>
+        <v>0.02188306003237582</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.359212126051296</v>
+        <v>-5.44706269044289</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8254031598755006</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.61870231683193</v>
+        <v>-18.48786271505955</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06338583932561681</v>
+        <v>0.003119051677156246</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.484688487290668</v>
+        <v>-5.563245049628257</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6013590788065907</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.21684061939212</v>
+        <v>-18.1179555665019</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1298567766881925</v>
+        <v>0.09717376578286602</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.093783054239617</v>
+        <v>-5.201145645037069</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3583902167967211</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.74434255073912</v>
+        <v>-17.61424118900365</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.06913558080897977</v>
+        <v>-0.05625304771465888</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.975889542650829</v>
+        <v>-5.121870398690042</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.09730837794942163</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.16060490884321</v>
+        <v>-16.98876120647802</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.09887052057355648</v>
+        <v>-0.1218195188068553</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.963852807744485</v>
+        <v>-5.098139159358038</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.1758814637671574</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.71252254048359</v>
+        <v>-16.58255318193352</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1438640507697748</v>
+        <v>-0.111948613942554</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.878202296443002</v>
+        <v>-5.107692278775989</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.4519061643056801</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.01079849586842</v>
+        <v>-15.89495836716374</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.301871863701599</v>
+        <v>-0.2388525651870653</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.003131088913279</v>
+        <v>-5.26123642843832</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.7188281360941547</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.38275667374453</v>
+        <v>-15.27488073722605</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.3943132055412268</v>
+        <v>-0.3021212030518116</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.056411485748918</v>
+        <v>-5.411842284973635</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.9650321532404622</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.9037611149654</v>
+        <v>-14.81067442421934</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.501568238187607</v>
+        <v>-0.4178928856603576</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.699333091210051</v>
+        <v>-5.114967120993959</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.181099430087974</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.30904765265327</v>
+        <v>-14.20429090251588</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5438434805658204</v>
+        <v>-0.4489869693339367</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.855316855298972</v>
+        <v>-5.260263516071804</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.361511320203919</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.78233538685305</v>
+        <v>-13.65247847546092</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6818797004462971</v>
+        <v>-0.5706499052171151</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.948951114814128</v>
+        <v>-5.400592680172863</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.503816787587766</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.86807154671249</v>
+        <v>-12.74524013818812</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.8473725828913681</v>
+        <v>-0.7439847546767178</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.966898659022573</v>
+        <v>-5.526000595316099</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.610015656107027</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.5217098552259</v>
+        <v>-12.42706846029616</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.9542951630707981</v>
+        <v>-0.820590603274408</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.175028570354009</v>
+        <v>-5.778156013484105</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.683640886951157</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.76831878604117</v>
+        <v>-11.68503455406328</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.083888068092113</v>
+        <v>-0.9726093827942615</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.231423264563873</v>
+        <v>-5.899701613202477</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.732976359393086</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.3481575358985</v>
+        <v>-11.23417034079638</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.181477534162602</v>
+        <v>-1.053312219146427</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.177693079096477</v>
+        <v>-5.825369152797903</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.764892546902601</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.78538884445479</v>
+        <v>-10.68204501730194</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.424123833974458</v>
+        <v>-1.297591447251832</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.421590964666263</v>
+        <v>-6.09515921873487</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.789178999848866</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.35410021468302</v>
+        <v>-10.23147903345393</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.38833630370864</v>
+        <v>-1.271850826097525</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.606810989819336</v>
+        <v>-6.303533580409652</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.81214862291308</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.783357553039369</v>
+        <v>-9.62854226159164</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.50136036445798</v>
+        <v>-1.379213416894977</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.636541040577046</v>
+        <v>-6.340406470199924</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.839820912012071</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.254543014286382</v>
+        <v>-9.121112238874538</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.444320321341683</v>
+        <v>-1.291749084045869</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.7754377256661</v>
+        <v>-6.509145653204627</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.875826242918702</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.68392746682127</v>
+        <v>-8.487540949984163</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.531593982922982</v>
+        <v>-1.373004378173995</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.705896491991101</v>
+        <v>-6.419970167952098</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.921469784421565</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.985234606463588</v>
+        <v>-7.843810304824339</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.703907029947399</v>
+        <v>-1.567391291202533</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.878204650008652</v>
+        <v>-6.579390903868461</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.979606463334371</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.617107056405493</v>
+        <v>-7.456845411308021</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.781236451561393</v>
+        <v>-1.612619493728364</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.867277719661097</v>
+        <v>-6.535692960491975</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.04883767051215</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.344432476417046</v>
+        <v>-7.245464310410086</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.698626902531131</v>
+        <v>-1.572363411186186</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.735802546996021</v>
+        <v>-6.396566492080177</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.132009202990726</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.753830668879986</v>
+        <v>-6.576217938411833</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.759519483058557</v>
+        <v>-1.656160988885108</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.972772709835388</v>
+        <v>-6.600662972746408</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.224139491290944</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.334031205245467</v>
+        <v>-6.21666081739144</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.901872696002519</v>
+        <v>-1.71894561507003</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.91807939001521</v>
+        <v>-6.518439655258632</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.325882790478319</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.217521282600017</v>
+        <v>-6.079915295323829</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.972997967902398</v>
+        <v>-1.818441793818616</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.767145970019812</v>
+        <v>-6.329425760776833</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.430101697167318</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.057015187159199</v>
+        <v>-5.864999442461115</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.072909712234672</v>
+        <v>-1.950112526758369</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.752835846920352</v>
+        <v>-6.30073217947491</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.534368732610207</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.820890822507808</v>
+        <v>-5.663279019132204</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.099178346130606</v>
+        <v>-1.986296066580407</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.894357928696939</v>
+        <v>-6.468718455422107</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.630777023202555</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.491283757554136</v>
+        <v>-5.293176310299875</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.256628812279602</v>
+        <v>-2.152898753584267</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.698465201553391</v>
+        <v>-6.225382805642016</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.713495763140712</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.352572854726025</v>
+        <v>-5.177077064231246</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.40938583183636</v>
+        <v>-2.276072392589322</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.507539705386629</v>
+        <v>-6.0603103777875</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.77558022045437</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.16795906642445</v>
+        <v>-4.974804183126374</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.233151801304676</v>
+        <v>-2.078478291056088</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.588037203450383</v>
+        <v>-6.172053518737708</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.809950626463118</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.198006902628509</v>
+        <v>-5.065162808040697</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.331772847824085</v>
+        <v>-2.20007278084313</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.612682687066501</v>
+        <v>-6.157655393514643</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.812155116173466</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.984767979121147</v>
+        <v>-4.828212201228796</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.416073993230299</v>
+        <v>-2.250224213283943</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.529809131665425</v>
+        <v>-6.070010167411459</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.776338931391942</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.065974383180604</v>
+        <v>-4.901121960635098</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.466381873890854</v>
+        <v>-2.264739674671814</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.408723098592543</v>
+        <v>-5.965761873988232</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.701611740440407</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.198158461841383</v>
+        <v>-5.074207470744489</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.490709572060623</v>
+        <v>-2.332124856318503</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.208723605680786</v>
+        <v>-5.772514099559684</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.584467291346523</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.998535422458379</v>
+        <v>-4.864708637490316</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.420122090916105</v>
+        <v>-2.212578860408698</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.207604023108263</v>
+        <v>-5.726694327202957</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.427630470977293</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.51046822049991</v>
+        <v>-5.402118050315341</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.519970278159109</v>
+        <v>-2.315658681190733</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.046912145406503</v>
+        <v>-5.591664846545634</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.232527204809829</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.55221056112963</v>
+        <v>-5.416613955675744</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.476536341153436</v>
+        <v>-2.250077543077936</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.773117982845532</v>
+        <v>-5.234381113718356</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.005303860656458</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.799540529519991</v>
+        <v>-5.694676221231532</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.606603479840842</v>
+        <v>-2.420053644819968</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.781649299828298</v>
+        <v>-5.26995352768203</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.7514234276746</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.976512800088578</v>
+        <v>-5.886232399284126</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.485449000671822</v>
+        <v>-2.281152070724047</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.323182680883349</v>
+        <v>-4.805346316112235</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.47888252704476</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.425255184375233</v>
+        <v>-6.329019973206879</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.672825077853204</v>
+        <v>-2.43242772120013</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.155621748533573</v>
+        <v>-4.648482530787269</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.19540700116814</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.614894871735997</v>
+        <v>-6.527102975426805</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.728046410415009</v>
+        <v>-2.481371568944815</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.754420067020798</v>
+        <v>-4.204814935628471</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.908558666798842</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.185011740500683</v>
+        <v>-7.060474068579759</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.723548524097447</v>
+        <v>-2.465540964709744</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.379169233957608</v>
+        <v>-3.753632936915225</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6253864867140424</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.872303436844719</v>
+        <v>-7.781138125797357</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.799333019541496</v>
+        <v>-2.516543084345401</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.075571685535924</v>
+        <v>-3.425717468337506</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3503427106946846</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.56340855854495</v>
+        <v>-8.44327099280425</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.777708942169131</v>
+        <v>-2.477103465949999</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.657766936703107</v>
+        <v>-2.981155184922063</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.08697429493414344</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.154758384132647</v>
+        <v>-9.037676447683769</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.858367777459494</v>
+        <v>-2.569300357446281</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.292132780147138</v>
+        <v>-2.566660293738146</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1647116829964237</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.861097651230184</v>
+        <v>-9.71646616108624</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.82284425356449</v>
+        <v>-2.528834047608826</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.952645032315431</v>
+        <v>-2.222953332980292</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.4045308452595521</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.75248093923359</v>
+        <v>-10.59486424685111</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.958103517544559</v>
+        <v>-2.664029754499625</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.867771873105788</v>
+        <v>-2.127304802635968</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.6327073611036927</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.69008000914993</v>
+        <v>-11.56257471006079</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.948428172954934</v>
+        <v>-2.615975706004718</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.585754400994666</v>
+        <v>-1.813191000443549</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.8511661155782527</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.69979681936014</v>
+        <v>-12.52317655728598</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.022829079455646</v>
+        <v>-2.726335258011589</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.29984527941748</v>
+        <v>-1.457427748751882</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.061578833991177</v>
       </c>
       <c r="E85" t="n">
-        <v>-14.04667421013341</v>
+        <v>-13.8489872174697</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.971978519032863</v>
+        <v>-2.664978221831806</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.190253301488714</v>
+        <v>-1.365827316093364</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.26663342997402</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.23946477148212</v>
+        <v>-15.02153729038938</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.92878414336367</v>
+        <v>-2.670708137879831</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.244433275587866</v>
+        <v>-1.433774733529748</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.468423771641635</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.68654724699967</v>
+        <v>-16.48138007382959</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.849719124311921</v>
+        <v>-2.580985083858207</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.042634628149084</v>
+        <v>-1.170819499192727</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.667946891888133</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.06977929283532</v>
+        <v>-17.88321479079384</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.870336066269702</v>
+        <v>-2.621065162153176</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.348041109111527</v>
+        <v>-1.476025530873627</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.865881242287485</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.56802522521514</v>
+        <v>-19.37576991918057</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.857873987765935</v>
+        <v>-2.624883476516237</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.16292375310266</v>
+        <v>-1.21393565075205</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.059803689635059</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.35268384687944</v>
+        <v>-21.16134767413585</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.621769179142012</v>
+        <v>-2.401455862698223</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.374862200783423</v>
+        <v>-1.432288475442206</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.247137497101964</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.92139014622523</v>
+        <v>-22.7066991876784</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.601142459170497</v>
+        <v>-2.417809590668054</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.535681192663723</v>
+        <v>-1.611837252629657</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.420223536029159</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.78858987082366</v>
+        <v>-24.57767322557808</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.433689084971794</v>
+        <v>-2.255846571180895</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.831788782565294</v>
+        <v>-1.900005095379358</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.571804689645751</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.64267727900501</v>
+        <v>-26.39035074559667</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.356418331440203</v>
+        <v>-2.193443287531593</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.238079920226526</v>
+        <v>-2.293330586829533</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.689286711011274</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.65713144593148</v>
+        <v>-28.41766544508656</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.52912738802084</v>
+        <v>-2.381846056155028</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.432227271918586</v>
+        <v>-2.498629763185025</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.764834100028331</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.82905563503441</v>
+        <v>-30.55671106300948</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.468958380509718</v>
+        <v>-2.357973035623882</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.761511662419042</v>
+        <v>-2.815584078367121</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.781741603644332</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.95586162426602</v>
+        <v>-32.7021710579418</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.57434092352607</v>
+        <v>-2.47562698587619</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.063945627206401</v>
+        <v>-3.11912784771327</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.739225589535513</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.0670007909926</v>
+        <v>-34.85773663006804</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.700697306001487</v>
+        <v>-2.606627924875176</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.383608452192767</v>
+        <v>-3.419234645231977</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.615387375165037</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.16428940126521</v>
+        <v>-36.91050838831395</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.833947188159254</v>
+        <v>-2.719974660077732</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.64606989683623</v>
+        <v>-3.691733220973215</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>2.425039790696857</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.54958940606777</v>
+        <v>-39.35299510643883</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.834260084598736</v>
+        <v>-2.784705110995686</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.909954042477964</v>
+        <v>-3.986667449226726</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>2.129924581025346</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.74896781323186</v>
+        <v>-41.50218785811403</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.923929359544823</v>
+        <v>-2.94952819949999</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.36232406985987</v>
+        <v>-4.495974850580724</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.77788848448314</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.76457334127549</v>
+        <v>-43.51192413341393</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.976701299666303</v>
+        <v>-3.028832779888217</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.697724607950836</v>
+        <v>-4.86280192481222</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.277197835869891</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.21195884428101</v>
+        <v>-45.926208615427</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.192575397874933</v>
+        <v>-3.291890683369443</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.874618654409553</v>
+        <v>-5.045450332353295</v>
       </c>
     </row>
   </sheetData>
